--- a/biology/Médecine/Antoine_Despine/Antoine_Despine.xlsx
+++ b/biology/Médecine/Antoine_Despine/Antoine_Despine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles-Humbert-Antoine Despine (dit Dr Despine père), né le 14 novembre 1777 et mort le 7 avril 1852 à Aix, est un médecin du XIXe siècle d'origine savoyarde, issu de la famille Despine (d'Espine).
 </t>
@@ -513,19 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Charles-Humbert-Antoine Despine est né le 14 novembre 1777[1]. Il est le fils aîné[1] de Joseph Despine (1737-1830), frère du précédent, médecin, directeur des Thermes royaux d'Aix (1787-1830)[2] et de Anne-Constance Burdin (1752-1822)[3],[4]. Issu d'une fratrie de neuf filles et six garçons, il a pour frère notamment Joseph-Charles-Marie (1792-1856), ingénieur et député représentant le duché de Savoie au Parlement de Turin. Deux de ses frères font du commerce à Marseille et un troisième a émigré en Guadeloupe[5].
-Il est issu d’une famille de notables originaires des Bauges, les Despine (d'Espine)[6].
-Son oncle, le baron Jean-Baptiste Despine, célibataire et sans enfant, l'adopte le 19 janvier 1794 (30 nivôse de l'an II), et en fait son « héritier de ses biens et de son titre de baron »[6],[7]. Le roi Charles-Albert de Sardaigne autorise par lettres patentes royales du 5 juin 1841 l'adoption[8],[9]. Il est ainsi le chef de famille[10].
-Le 16 avril 1806, il épouse Suzanne-Péronne Révillod (1784–1862)[1]. Cette dernière est la fille d'un propriétaire-rentier[5]. Le mariage se fait sous le régime sans communauté[5]. Suzanne-Péronne Révillod apporte une dot, mais possède aussi des biens paraphernaux[5]. Le couple est installé à Annecy, mais Antoine Despine possède également une maison à Aix-les-Bains[5].
-Carrière médicale
-Antoine Despine effectue des études de médecine à Montpellier, obtenant son doctorat en 1803[8]. Sa thèse, présentée en l'an X (1802), s'intitule Essai sur la Topographie médicale d'Aix-en-Savoie (Dt du Mont-Blanc) et sur ses Eaux minérales, publié à Montpellier, chez G. Izard et A. Ricard.
-Alors que son père est à la tête Thermes royaux de la ville d'Aix, il en devient le directeur-adjoint à partir de 1817[8]. Il lui succède en 1830[8]. Il est chargé notamment de cas « d'affections rhumatismales mais aussi de nombreuses maladies nerveuses. »[11] Dans un ouvrage publié en 1840, De l'emploi du magnétisme animal et des eaux minérales dans le traitement des maladies nerveuses : suivi d'une observation très curieuse de guérison de névropathie, le docteur Despine décrit ses pratiques thérapeutiques concernant la catalepsie, notamment inspirées du docteur Jacques Henri Désiré Petetin (1744-1808), médecin lyonnais, président de la Société de médecine de cette ville[12].
-Activités annexes
-Antoine Despine, domicilié à Annecy, est élu adjoint au maire de cette ville, en 1813[8]. Il est bibliothécaire de la ville d'Annecy[8]. En 1851, il fait partie des notables annéciens — avec Camille Dunant, Jules Philippe, Éloi Serand, le docteur Bouvier, Étienne Machard — qui réactivent la Florimontane, sous le nom de l’Association florimontane (1851), puis à la Société florimontane (1862)[13],[14].
-Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 13 août 1820[15].
-Il est membre correspondant de la Académie royale de médecine de Paris, en 1835[9].
-En 1820, il doit intervenir financièrement pour aider ses deux frères dont les affaires à Marseille sont en grandes difficultés[5].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Humbert-Antoine Despine est né le 14 novembre 1777. Il est le fils aîné de Joseph Despine (1737-1830), frère du précédent, médecin, directeur des Thermes royaux d'Aix (1787-1830) et de Anne-Constance Burdin (1752-1822),. Issu d'une fratrie de neuf filles et six garçons, il a pour frère notamment Joseph-Charles-Marie (1792-1856), ingénieur et député représentant le duché de Savoie au Parlement de Turin. Deux de ses frères font du commerce à Marseille et un troisième a émigré en Guadeloupe.
+Il est issu d’une famille de notables originaires des Bauges, les Despine (d'Espine).
+Son oncle, le baron Jean-Baptiste Despine, célibataire et sans enfant, l'adopte le 19 janvier 1794 (30 nivôse de l'an II), et en fait son « héritier de ses biens et de son titre de baron »,. Le roi Charles-Albert de Sardaigne autorise par lettres patentes royales du 5 juin 1841 l'adoption,. Il est ainsi le chef de famille.
+Le 16 avril 1806, il épouse Suzanne-Péronne Révillod (1784–1862). Cette dernière est la fille d'un propriétaire-rentier. Le mariage se fait sous le régime sans communauté. Suzanne-Péronne Révillod apporte une dot, mais possède aussi des biens paraphernaux. Le couple est installé à Annecy, mais Antoine Despine possède également une maison à Aix-les-Bains.
 </t>
         </is>
       </c>
@@ -551,15 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Famille</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Antoine Despine épouse en 1806, Suzanne-Péronne Révillod (1784–1862)[1]. Le couple a trois filles et cinq fils[1], dont :
-Constant-Claude-Joseph (1807—1873), médecin, médecin-directeur des thermes d'Aix[16]. Il hérite également du titre de baron. Chevalier des SS-Maurice-et-Lazare (1853), de la Légion d'honneur (15 mai 1861)[17],[4]. Élu membre de l'Académie des sciences de Turin, Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie[4], le 14 août 1835[15],[18].
-Alphonse-Louis-Joseph (1818—1872), avocat et professeur de droit à Annecy[19]. Chevalier des SS-Maurice-et-Lazare. Élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 14 août 1862[15], membre de l'Académie florimontane d'Annecy et membre correspondant pour la Savoie du Comité des travaux historiques et scientifiques (1861-1872)[20].
-Félix-François-Antoine (1819—1883), haut fonctionnaire, chevalier de la Légion d'honneur (28 août 1860)[21], des SS-Maurice-et-Lazare (1862)[4],[22]. Élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 2 avril 1862[15],[23].</t>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Despine effectue des études de médecine à Montpellier, obtenant son doctorat en 1803. Sa thèse, présentée en l'an X (1802), s'intitule Essai sur la Topographie médicale d'Aix-en-Savoie (Dt du Mont-Blanc) et sur ses Eaux minérales, publié à Montpellier, chez G. Izard et A. Ricard.
+Alors que son père est à la tête Thermes royaux de la ville d'Aix, il en devient le directeur-adjoint à partir de 1817. Il lui succède en 1830. Il est chargé notamment de cas « d'affections rhumatismales mais aussi de nombreuses maladies nerveuses. » Dans un ouvrage publié en 1840, De l'emploi du magnétisme animal et des eaux minérales dans le traitement des maladies nerveuses : suivi d'une observation très curieuse de guérison de névropathie, le docteur Despine décrit ses pratiques thérapeutiques concernant la catalepsie, notamment inspirées du docteur Jacques Henri Désiré Petetin (1744-1808), médecin lyonnais, président de la Société de médecine de cette ville.
+</t>
         </is>
       </c>
     </row>
@@ -584,10 +598,87 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Activités annexes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine Despine, domicilié à Annecy, est élu adjoint au maire de cette ville, en 1813. Il est bibliothécaire de la ville d'Annecy. En 1851, il fait partie des notables annéciens — avec Camille Dunant, Jules Philippe, Éloi Serand, le docteur Bouvier, Étienne Machard — qui réactivent la Florimontane, sous le nom de l’Association florimontane (1851), puis à la Société florimontane (1862),.
+Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 13 août 1820.
+Il est membre correspondant de la Académie royale de médecine de Paris, en 1835.
+En 1820, il doit intervenir financièrement pour aider ses deux frères dont les affaires à Marseille sont en grandes difficultés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antoine_Despine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Despine</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Antoine Despine épouse en 1806, Suzanne-Péronne Révillod (1784–1862). Le couple a trois filles et cinq fils, dont :
+Constant-Claude-Joseph (1807—1873), médecin, médecin-directeur des thermes d'Aix. Il hérite également du titre de baron. Chevalier des SS-Maurice-et-Lazare (1853), de la Légion d'honneur (15 mai 1861),. Élu membre de l'Académie des sciences de Turin, Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 14 août 1835,.
+Alphonse-Louis-Joseph (1818—1872), avocat et professeur de droit à Annecy. Chevalier des SS-Maurice-et-Lazare. Élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 14 août 1862, membre de l'Académie florimontane d'Annecy et membre correspondant pour la Savoie du Comité des travaux historiques et scientifiques (1861-1872).
+Félix-François-Antoine (1819—1883), haut fonctionnaire, chevalier de la Légion d'honneur (28 août 1860), des SS-Maurice-et-Lazare (1862),. Élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 2 avril 1862,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antoine_Despine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Despine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Observations de médecine pratique faites aux bains d'Aix-en-Savoie (1838)
 De l'emploi du magnétisme animal et des eaux minérales dans le traitement des maladies nerveuses : suivi d'une observation très curieuse de guérison de névropathie (1840) (lire en ligne sur Gallica).</t>
